--- a/Trabajos/Trabajo_1/Code/mtVRP_Cristian_Alzate_Urrea_Noise.xlsx
+++ b/Trabajos/Trabajo_1/Code/mtVRP_Cristian_Alzate_Urrea_Noise.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP1.txt" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP10.txt" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP11.txt" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP12.txt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP2.txt" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP3.txt" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP4.txt" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP5.txt" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP6.txt" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP7.txt" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP8.txt" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP9.txt" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mtVRP1.txt" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mtVRP10.txt" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mtVRP11.txt" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mtVRP12.txt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mtVRP2.txt" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mtVRP3.txt" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="mtVRP4.txt" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="mtVRP5.txt" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="mtVRP6.txt" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="mtVRP7.txt" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="mtVRP8.txt" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="mtVRP9.txt" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,67 +462,64 @@
         <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E1" t="n">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F1" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G1" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="H1" t="n">
         <v>72</v>
       </c>
       <c r="I1" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J1" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="K1" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="L1" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="M1" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="N1" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O1" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P1" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="Q1" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="R1" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S1" t="n">
+        <v>88</v>
+      </c>
+      <c r="T1" t="n">
         <v>10</v>
       </c>
-      <c r="T1" t="n">
-        <v>64</v>
-      </c>
       <c r="U1" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="V1" t="n">
-        <v>0</v>
+        <v>217.708430377752</v>
       </c>
       <c r="W1" t="n">
-        <v>264.2244095215637</v>
-      </c>
-      <c r="X1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -533,105 +530,87 @@
         <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
+        <v>68</v>
+      </c>
+      <c r="H2" t="n">
         <v>77</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>3</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>79</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>78</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>34</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>35</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>71</v>
       </c>
-      <c r="N2" t="n">
-        <v>65</v>
-      </c>
       <c r="O2" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>96</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>99</v>
+      </c>
+      <c r="R2" t="n">
+        <v>86</v>
+      </c>
+      <c r="S2" t="n">
+        <v>38</v>
+      </c>
+      <c r="T2" t="n">
+        <v>82</v>
+      </c>
+      <c r="U2" t="n">
+        <v>48</v>
+      </c>
+      <c r="V2" t="n">
+        <v>47</v>
+      </c>
+      <c r="W2" t="n">
+        <v>36</v>
+      </c>
+      <c r="X2" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="n">
         <v>90</v>
       </c>
-      <c r="Q2" t="n">
-        <v>46</v>
-      </c>
-      <c r="R2" t="n">
-        <v>17</v>
-      </c>
-      <c r="S2" t="n">
-        <v>91</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>31</v>
-      </c>
-      <c r="V2" t="n">
-        <v>88</v>
-      </c>
-      <c r="W2" t="n">
-        <v>62</v>
-      </c>
-      <c r="X2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>32</v>
-      </c>
       <c r="AA2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>51</v>
+        <v>297.2142236968742</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>33</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>322.7357199004503</v>
-      </c>
-      <c r="AJ2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -640,93 +619,105 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F3" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H3" t="n">
+        <v>75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>56</v>
+      </c>
+      <c r="J3" t="n">
+        <v>23</v>
+      </c>
+      <c r="K3" t="n">
+        <v>39</v>
+      </c>
+      <c r="L3" t="n">
+        <v>67</v>
+      </c>
+      <c r="M3" t="n">
+        <v>25</v>
+      </c>
+      <c r="N3" t="n">
+        <v>55</v>
+      </c>
+      <c r="O3" t="n">
         <v>24</v>
       </c>
-      <c r="I3" t="n">
-        <v>54</v>
-      </c>
-      <c r="J3" t="n">
-        <v>55</v>
-      </c>
-      <c r="K3" t="n">
-        <v>25</v>
-      </c>
-      <c r="L3" t="n">
-        <v>39</v>
-      </c>
-      <c r="M3" t="n">
-        <v>56</v>
-      </c>
-      <c r="N3" t="n">
-        <v>75</v>
-      </c>
-      <c r="O3" t="n">
-        <v>74</v>
-      </c>
       <c r="P3" t="n">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="R3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="U3" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="V3" t="n">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="W3" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="X3" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="Z3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>63</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="n">
         <v>19</v>
       </c>
-      <c r="AA3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
       <c r="AD3" t="n">
-        <v>264.1051156754486</v>
+        <v>62</v>
       </c>
       <c r="AE3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>364.2771738180314</v>
+      </c>
+      <c r="AI3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -753,90 +744,99 @@
         <v>92</v>
       </c>
       <c r="H4" t="n">
+        <v>98</v>
+      </c>
+      <c r="I4" t="n">
         <v>37</v>
-      </c>
-      <c r="I4" t="n">
-        <v>98</v>
       </c>
       <c r="J4" t="n">
         <v>100</v>
       </c>
       <c r="K4" t="n">
+        <v>91</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14</v>
+      </c>
+      <c r="O4" t="n">
+        <v>43</v>
+      </c>
+      <c r="P4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>57</v>
+      </c>
+      <c r="R4" t="n">
+        <v>42</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>52</v>
+      </c>
+      <c r="U4" t="n">
+        <v>18</v>
+      </c>
+      <c r="V4" t="n">
+        <v>60</v>
+      </c>
+      <c r="W4" t="n">
+        <v>83</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>84</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>61</v>
+      </c>
+      <c r="AD4" t="n">
         <v>85</v>
       </c>
-      <c r="L4" t="n">
+      <c r="AE4" t="n">
         <v>93</v>
       </c>
-      <c r="M4" t="n">
-        <v>99</v>
-      </c>
-      <c r="N4" t="n">
-        <v>96</v>
-      </c>
-      <c r="O4" t="n">
-        <v>60</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>52</v>
-      </c>
-      <c r="R4" t="n">
-        <v>18</v>
-      </c>
-      <c r="S4" t="n">
-        <v>83</v>
-      </c>
-      <c r="T4" t="n">
-        <v>84</v>
-      </c>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>61</v>
-      </c>
-      <c r="W4" t="n">
-        <v>16</v>
-      </c>
-      <c r="X4" t="n">
-        <v>86</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF4" t="n">
-        <v>223.6065477011343</v>
+        <v>59</v>
       </c>
       <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>209.2530876982496</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1074.671792798597</v>
+        <v>1088.452915590907</v>
       </c>
       <c r="B5" t="n">
-        <v>2.196332693099976</v>
+        <v>1.74029541015625</v>
       </c>
     </row>
   </sheetData>
@@ -863,96 +863,99 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C1" t="n">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E1" t="n">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F1" t="n">
+        <v>37</v>
+      </c>
+      <c r="G1" t="n">
+        <v>63</v>
+      </c>
+      <c r="H1" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1" t="n">
+        <v>145</v>
+      </c>
+      <c r="J1" t="n">
+        <v>147</v>
+      </c>
+      <c r="K1" t="n">
+        <v>142</v>
+      </c>
+      <c r="L1" t="n">
+        <v>87</v>
+      </c>
+      <c r="M1" t="n">
+        <v>148</v>
+      </c>
+      <c r="N1" t="n">
+        <v>135</v>
+      </c>
+      <c r="O1" t="n">
+        <v>141</v>
+      </c>
+      <c r="P1" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1" t="n">
         <v>51</v>
       </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
-        <v>120</v>
-      </c>
-      <c r="I1" t="n">
-        <v>80</v>
-      </c>
-      <c r="J1" t="n">
-        <v>22</v>
-      </c>
-      <c r="K1" t="n">
-        <v>101</v>
-      </c>
-      <c r="L1" t="n">
-        <v>59</v>
-      </c>
-      <c r="M1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N1" t="n">
-        <v>131</v>
-      </c>
-      <c r="O1" t="n">
-        <v>83</v>
-      </c>
-      <c r="P1" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>53</v>
-      </c>
-      <c r="R1" t="n">
-        <v>0</v>
-      </c>
       <c r="S1" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="T1" t="n">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="U1" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="V1" t="n">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="W1" t="n">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="X1" t="n">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="Y1" t="n">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="Z1" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AA1" t="n">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="AB1" t="n">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="AC1" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AD1" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AE1" t="n">
-        <v>211.1352310389564</v>
+        <v>0</v>
       </c>
       <c r="AF1" t="n">
+        <v>262.8541610160667</v>
+      </c>
+      <c r="AG1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -961,99 +964,75 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="K2" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M2" t="n">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="N2" t="n">
+        <v>85</v>
+      </c>
+      <c r="O2" t="n">
+        <v>35</v>
+      </c>
+      <c r="P2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>59</v>
+      </c>
+      <c r="R2" t="n">
         <v>128</v>
       </c>
-      <c r="O2" t="n">
-        <v>74</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>60</v>
-      </c>
-      <c r="R2" t="n">
-        <v>8</v>
-      </c>
       <c r="S2" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="V2" t="n">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="W2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>272.8136384801012</v>
       </c>
       <c r="Y2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>115</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>116</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>93</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>88</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>358.3250358798786</v>
-      </c>
-      <c r="AG2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1065,91 +1044,91 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
         <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="F3" t="n">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="G3" t="n">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I3" t="n">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="J3" t="n">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="L3" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="M3" t="n">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="N3" t="n">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="P3" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="R3" t="n">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="S3" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="T3" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="U3" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="V3" t="n">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="X3" t="n">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="Z3" t="n">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="AA3" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="AB3" t="n">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>177.1819914491805</v>
+        <v>328.6114222046571</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1163,58 +1142,88 @@
         <v>11</v>
       </c>
       <c r="D4" t="n">
+        <v>126</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>127</v>
+      </c>
+      <c r="G4" t="n">
+        <v>53</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29</v>
+      </c>
+      <c r="I4" t="n">
+        <v>129</v>
+      </c>
+      <c r="J4" t="n">
+        <v>131</v>
+      </c>
+      <c r="K4" t="n">
+        <v>83</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
         <v>100</v>
       </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>129</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21</v>
-      </c>
-      <c r="H4" t="n">
-        <v>79</v>
-      </c>
-      <c r="I4" t="n">
-        <v>34</v>
-      </c>
-      <c r="J4" t="n">
-        <v>104</v>
-      </c>
-      <c r="K4" t="n">
-        <v>30</v>
-      </c>
-      <c r="L4" t="n">
-        <v>105</v>
-      </c>
-      <c r="M4" t="n">
-        <v>75</v>
-      </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Q4" t="n">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="R4" t="n">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="T4" t="n">
-        <v>207.930878657308</v>
+        <v>124</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="V4" t="n">
+        <v>72</v>
+      </c>
+      <c r="W4" t="n">
+        <v>91</v>
+      </c>
+      <c r="X4" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>107</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>137</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>92</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>157.4395363477844</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1222,97 +1231,100 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F5" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J5" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K5" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L5" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M5" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="O5" t="n">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R5" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="T5" t="n">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="U5" t="n">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="V5" t="n">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="W5" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="X5" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="Y5" t="n">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="AA5" t="n">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="AB5" t="n">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="AC5" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>174.6789768945848</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>226.4577100874501</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1320,102 +1332,90 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E6" t="n">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="F6" t="n">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="G6" t="n">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="H6" t="n">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="K6" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L6" t="n">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="O6" t="n">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="P6" t="n">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="R6" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="S6" t="n">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="T6" t="n">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="U6" t="n">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="V6" t="n">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="W6" t="n">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="Y6" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>82</v>
+        <v>156.9138212005414</v>
       </c>
       <c r="AA6" t="n">
-        <v>31</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>238.3610004654337</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1367.613114385342</v>
+        <v>1405.090289336601</v>
       </c>
       <c r="B7" t="n">
-        <v>5.449488639831543</v>
+        <v>3.741228342056274</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB6"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1448,127 +1448,118 @@
         <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="E1" t="n">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F1" t="n">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="G1" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H1" t="n">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="I1" t="n">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="J1" t="n">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="K1" t="n">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L1" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="M1" t="n">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="N1" t="n">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="O1" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="P1" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q1" t="n">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="R1" t="n">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="S1" t="n">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="T1" t="n">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="U1" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V1" t="n">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="W1" t="n">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="X1" t="n">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="Y1" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="Z1" t="n">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AA1" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AB1" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="AC1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AD1" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AE1" t="n">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="AF1" t="n">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="AG1" t="n">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="AH1" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AI1" t="n">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="AJ1" t="n">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="AK1" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="AL1" t="n">
         <v>131</v>
       </c>
       <c r="AM1" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AN1" t="n">
-        <v>77</v>
+        <v>298.0862082392791</v>
       </c>
       <c r="AO1" t="n">
-        <v>119</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>242.7644327462913</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -1576,124 +1567,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="H2" t="n">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="I2" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="J2" t="n">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="K2" t="n">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="N2" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="P2" t="n">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="Q2" t="n">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="R2" t="n">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="T2" t="n">
-        <v>193</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="V2" t="n">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="W2" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="X2" t="n">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="Y2" t="n">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="AA2" t="n">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="AB2" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="AG2" t="n">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="AH2" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="n">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="AK2" t="n">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="AM2" t="n">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="AN2" t="n">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -1702,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>305.9283389405473</v>
+        <v>263.9175433841723</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1713,147 +1704,168 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C3" t="n">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G3" t="n">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="H3" t="n">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="J3" t="n">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="L3" t="n">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="M3" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="P3" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Q3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="U3" t="n">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="V3" t="n">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="W3" t="n">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="X3" t="n">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="Y3" t="n">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="Z3" t="n">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="n">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="AC3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AE3" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AF3" t="n">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AH3" t="n">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AI3" t="n">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="AJ3" t="n">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="AK3" t="n">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="AL3" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AM3" t="n">
+        <v>134</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>119</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>39</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>57</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>163</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>148</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>92</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>135</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>146</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>73</v>
+      </c>
+      <c r="BA3" t="n">
         <v>137</v>
       </c>
-      <c r="AN3" t="n">
-        <v>142</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>114</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>94</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>173</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>172</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>315.6649756922369</v>
-      </c>
-      <c r="AW3" t="n">
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>403.0541459764304</v>
+      </c>
+      <c r="BD3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1862,162 +1874,126 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="F4" t="n">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="H4" t="n">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="I4" t="n">
+        <v>186</v>
+      </c>
+      <c r="J4" t="n">
+        <v>93</v>
+      </c>
+      <c r="K4" t="n">
+        <v>156</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28</v>
+      </c>
+      <c r="M4" t="n">
+        <v>159</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>151</v>
+      </c>
+      <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="J4" t="n">
+      <c r="Q4" t="n">
         <v>55</v>
       </c>
-      <c r="K4" t="n">
+      <c r="R4" t="n">
         <v>44</v>
       </c>
-      <c r="L4" t="n">
+      <c r="S4" t="n">
         <v>106</v>
       </c>
-      <c r="M4" t="n">
-        <v>181</v>
-      </c>
-      <c r="N4" t="n">
-        <v>49</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>151</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>168</v>
-      </c>
-      <c r="R4" t="n">
-        <v>81</v>
-      </c>
-      <c r="S4" t="n">
-        <v>149</v>
-      </c>
       <c r="T4" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="U4" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="V4" t="n">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="W4" t="n">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="X4" t="n">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z4" t="n">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="AA4" t="n">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="AB4" t="n">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AC4" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AE4" t="n">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="AG4" t="n">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="AH4" t="n">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="AI4" t="n">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AK4" t="n">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AL4" t="n">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="AM4" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>135</v>
+        <v>327.8195092539199</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>39</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>109</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>57</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>163</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>148</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>92</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>147</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>419.5923853350916</v>
-      </c>
-      <c r="BB4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2035,126 +2011,150 @@
         <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="G5" t="n">
         <v>12</v>
       </c>
       <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="n">
         <v>169</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>129</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>71</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>150</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>52</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>11</v>
       </c>
-      <c r="N5" t="n">
-        <v>170</v>
-      </c>
       <c r="O5" t="n">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="Q5" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="S5" t="n">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="T5" t="n">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="U5" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="V5" t="n">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="W5" t="n">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="X5" t="n">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="n">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="Z5" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="AA5" t="n">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="AC5" t="n">
+        <v>166</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>124</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>120</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AH5" t="n">
+        <v>172</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>171</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>47</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>173</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
         <v>48</v>
       </c>
-      <c r="AE5" t="n">
-        <v>171</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>47</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>133</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>164</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>165</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="AO5" t="n">
-        <v>382.7090343618991</v>
+        <v>142</v>
       </c>
       <c r="AP5" t="n">
+        <v>91</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>113</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>68</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>358.0523613217298</v>
+      </c>
+      <c r="AX5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1666.659167076066</v>
+        <v>1650.929768175532</v>
       </c>
       <c r="B6" t="n">
-        <v>12.14080500602722</v>
+        <v>6.988395214080811</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +2168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2193,85 +2193,85 @@
         <v>157</v>
       </c>
       <c r="F1" t="n">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="G1" t="n">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="H1" t="n">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="I1" t="n">
+        <v>93</v>
+      </c>
+      <c r="J1" t="n">
+        <v>156</v>
+      </c>
+      <c r="K1" t="n">
+        <v>114</v>
+      </c>
+      <c r="L1" t="n">
+        <v>142</v>
+      </c>
+      <c r="M1" t="n">
+        <v>91</v>
+      </c>
+      <c r="N1" t="n">
+        <v>141</v>
+      </c>
+      <c r="O1" t="n">
+        <v>22</v>
+      </c>
+      <c r="P1" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>42</v>
+      </c>
+      <c r="R1" t="n">
+        <v>154</v>
+      </c>
+      <c r="S1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1" t="n">
         <v>48</v>
       </c>
-      <c r="J1" t="n">
-        <v>59</v>
-      </c>
-      <c r="K1" t="n">
+      <c r="U1" t="n">
+        <v>103</v>
+      </c>
+      <c r="V1" t="n">
         <v>5</v>
       </c>
-      <c r="L1" t="n">
-        <v>103</v>
-      </c>
-      <c r="M1" t="n">
+      <c r="W1" t="n">
         <v>88</v>
       </c>
-      <c r="N1" t="n">
+      <c r="X1" t="n">
         <v>37</v>
       </c>
-      <c r="O1" t="n">
+      <c r="Y1" t="n">
+        <v>138</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="n">
         <v>124</v>
       </c>
-      <c r="P1" t="n">
-        <v>154</v>
-      </c>
-      <c r="Q1" t="n">
+      <c r="AB1" t="n">
         <v>15</v>
       </c>
-      <c r="R1" t="n">
+      <c r="AC1" t="n">
+        <v>79</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>153</v>
+      </c>
+      <c r="AE1" t="n">
         <v>123</v>
       </c>
-      <c r="S1" t="n">
-        <v>145</v>
-      </c>
-      <c r="T1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U1" t="n">
-        <v>117</v>
-      </c>
-      <c r="V1" t="n">
-        <v>182</v>
-      </c>
-      <c r="W1" t="n">
-        <v>63</v>
-      </c>
-      <c r="X1" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>73</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>146</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>135</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>92</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>148</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>163</v>
-      </c>
       <c r="AF1" t="n">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="AG1" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="AI1" t="n">
-        <v>300.6272443254286</v>
+        <v>286.0141974846234</v>
       </c>
       <c r="AJ1" t="n">
         <v>1</v>
@@ -2291,156 +2291,138 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G2" t="n">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="H2" t="n">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="J2" t="n">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="L2" t="n">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="M2" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="O2" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="R2" t="n">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="S2" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="T2" t="n">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="U2" t="n">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="V2" t="n">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="W2" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="X2" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y2" t="n">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="AC2" t="n">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="AD2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="AF2" t="n">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="AG2" t="n">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="AH2" t="n">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AK2" t="n">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="AL2" t="n">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="AM2" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AO2" t="n">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="AP2" t="n">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="AQ2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>57</v>
+        <v>320.467414393579</v>
       </c>
       <c r="AT2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>165</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>164</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>407.7912696271895</v>
-      </c>
-      <c r="AZ2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,108 +2470,129 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="P3" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Q3" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="R3" t="n">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="S3" t="n">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="T3" t="n">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="V3" t="n">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="W3" t="n">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="X3" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="Z3" t="n">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="AD3" t="n">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="AE3" t="n">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="AG3" t="n">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="AH3" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="n">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="AJ3" t="n">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="AK3" t="n">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AM3" t="n">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="AN3" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="AP3" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AQ3" t="n">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="AS3" t="n">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="AT3" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AV3" t="n">
-        <v>353.8013296919265</v>
+        <v>11</v>
       </c>
       <c r="AW3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>134</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>189</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>341.0169747570642</v>
+      </c>
+      <c r="BD3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2598,150 +2601,138 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="F4" t="n">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="L4" t="n">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="P4" t="n">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="S4" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="T4" t="n">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="V4" t="n">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="W4" t="n">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="X4" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="AA4" t="n">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="AB4" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AD4" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="AF4" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="AH4" t="n">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="AI4" t="n">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="AK4" t="n">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="AL4" t="n">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="AN4" t="n">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="AO4" t="n">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="AP4" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AQ4" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>172</v>
+        <v>363.7257116683591</v>
       </c>
       <c r="AT4" t="n">
-        <v>155</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>346.8144174505064</v>
-      </c>
-      <c r="AX4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,144 +2747,153 @@
         <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="F5" t="n">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L5" t="n">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="O5" t="n">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>44</v>
+      </c>
+      <c r="R5" t="n">
+        <v>32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>97</v>
+      </c>
+      <c r="T5" t="n">
+        <v>161</v>
+      </c>
+      <c r="U5" t="n">
+        <v>9</v>
+      </c>
+      <c r="V5" t="n">
+        <v>39</v>
+      </c>
+      <c r="W5" t="n">
+        <v>109</v>
+      </c>
+      <c r="X5" t="n">
+        <v>57</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>159</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>104</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>62</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>185</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>68</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>113</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>137</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>172</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>59</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>72</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>56</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>162</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>131</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>165</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>164</v>
+      </c>
+      <c r="AU5" t="n">
         <v>84</v>
       </c>
-      <c r="Q5" t="n">
-        <v>177</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>193</v>
-      </c>
-      <c r="T5" t="n">
-        <v>194</v>
-      </c>
-      <c r="U5" t="n">
-        <v>196</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>136</v>
-      </c>
-      <c r="X5" t="n">
-        <v>197</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>199</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>43</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>184</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>198</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>49</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>153</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>79</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>83</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>128</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>119</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>77</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>315.2215010691734</v>
-      </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>422.3517765522543</v>
+      </c>
+      <c r="AX5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1724.255762164225</v>
+        <v>1733.57607485588</v>
       </c>
       <c r="B6" t="n">
-        <v>9.528261184692383</v>
+        <v>7.004647016525269</v>
       </c>
     </row>
   </sheetData>
@@ -3115,19 +3115,19 @@
         <v>24</v>
       </c>
       <c r="R4" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>226.6842002653859</v>
+        <v>236.3815958773712</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>600.3297049536956</v>
+        <v>610.0271005656808</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5944650173187256</v>
+        <v>0.5200498104095459</v>
       </c>
     </row>
   </sheetData>
@@ -3152,7 +3152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3168,112 +3168,124 @@
         <v>88</v>
       </c>
       <c r="C1" t="n">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D1" t="n">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" t="n">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="G1" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H1" t="n">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="I1" t="n">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="J1" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K1" t="n">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="L1" t="n">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="M1" t="n">
+        <v>114</v>
+      </c>
+      <c r="N1" t="n">
+        <v>108</v>
+      </c>
+      <c r="O1" t="n">
+        <v>109</v>
+      </c>
+      <c r="P1" t="n">
         <v>115</v>
       </c>
-      <c r="N1" t="n">
+      <c r="Q1" t="n">
         <v>110</v>
       </c>
-      <c r="O1" t="n">
+      <c r="R1" t="n">
         <v>98</v>
       </c>
-      <c r="P1" t="n">
+      <c r="S1" t="n">
         <v>116</v>
       </c>
-      <c r="Q1" t="n">
+      <c r="T1" t="n">
         <v>100</v>
       </c>
-      <c r="R1" t="n">
+      <c r="U1" t="n">
         <v>99</v>
       </c>
-      <c r="S1" t="n">
-        <v>104</v>
-      </c>
-      <c r="T1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U1" t="n">
-        <v>67</v>
-      </c>
       <c r="V1" t="n">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="W1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="X1" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="Y1" t="n">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="Z1" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="AA1" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AB1" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="AC1" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="AD1" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AE1" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AF1" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="AG1" t="n">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="AH1" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AI1" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AK1" t="n">
-        <v>273.2842424730948</v>
+        <v>38</v>
       </c>
       <c r="AL1" t="n">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>319.0688899641541</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -3281,25 +3293,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C2" t="n">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D2" t="n">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F2" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H2" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
         <v>96</v>
@@ -3308,102 +3320,99 @@
         <v>93</v>
       </c>
       <c r="K2" t="n">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="L2" t="n">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="M2" t="n">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="N2" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O2" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P2" t="n">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="Q2" t="n">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="R2" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="S2" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T2" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AB2" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="AD2" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AE2" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AH2" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>297.8438942609126</v>
       </c>
       <c r="AP2" t="n">
-        <v>406.8663223933034</v>
-      </c>
-      <c r="AQ2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3412,63 +3421,66 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="n">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
         <v>7</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>10</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>11</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>15</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>14</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12</v>
       </c>
       <c r="L3" t="n">
         <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
         <v>5</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" t="n">
-        <v>34</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>255.8643973194397</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>241.1857721527297</v>
+      </c>
+      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3477,123 +3489,111 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I4" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="J4" t="n">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="K4" t="n">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="L4" t="n">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="N4" t="n">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="O4" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="Q4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S4" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="V4" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="W4" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="X4" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Y4" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Z4" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AA4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB4" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AC4" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AD4" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AE4" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>419.5589582517185</v>
       </c>
       <c r="AH4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>66</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>463.4590647360976</v>
-      </c>
-      <c r="AL4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1399.474026921936</v>
+        <v>1277.657514629515</v>
       </c>
       <c r="B5" t="n">
-        <v>2.897381544113159</v>
+        <v>2.497235536575317</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3623,75 +3623,69 @@
         <v>21</v>
       </c>
       <c r="C1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L1" t="n">
         <v>20</v>
       </c>
-      <c r="D1" t="n">
-        <v>22</v>
-      </c>
-      <c r="E1" t="n">
-        <v>24</v>
-      </c>
-      <c r="F1" t="n">
-        <v>25</v>
-      </c>
-      <c r="G1" t="n">
-        <v>27</v>
-      </c>
-      <c r="H1" t="n">
-        <v>28</v>
-      </c>
-      <c r="I1" t="n">
-        <v>30</v>
-      </c>
-      <c r="J1" t="n">
-        <v>29</v>
-      </c>
-      <c r="K1" t="n">
-        <v>26</v>
-      </c>
-      <c r="L1" t="n">
-        <v>23</v>
-      </c>
       <c r="M1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P1" t="n">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="Q1" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="R1" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="S1" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="T1" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="U1" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="V1" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="W1" t="n">
-        <v>60</v>
+        <v>194.7882321643657</v>
       </c>
       <c r="X1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>184.1199020992269</v>
-      </c>
-      <c r="Z1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3727,45 +3721,54 @@
         <v>68</v>
       </c>
       <c r="K2" t="n">
+        <v>66</v>
+      </c>
+      <c r="L2" t="n">
         <v>69</v>
       </c>
-      <c r="L2" t="n">
-        <v>66</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="S2" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="T2" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="U2" t="n">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="W2" t="n">
-        <v>202.7534267520982</v>
+        <v>70</v>
       </c>
       <c r="X2" t="n">
+        <v>77</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>235.171657347285</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,58 +3777,79 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
         <v>11</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>75</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>98</v>
       </c>
-      <c r="M3" t="n">
-        <v>96</v>
-      </c>
-      <c r="N3" t="n">
-        <v>94</v>
-      </c>
       <c r="O3" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R3" t="n">
-        <v>117.594897007097</v>
+        <v>55</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="T3" t="n">
+        <v>53</v>
+      </c>
+      <c r="U3" t="n">
+        <v>56</v>
+      </c>
+      <c r="V3" t="n">
+        <v>58</v>
+      </c>
+      <c r="W3" t="n">
+        <v>60</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>206.3314535183752</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3836,37 +3860,37 @@
         <v>43</v>
       </c>
       <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>51</v>
+      </c>
+      <c r="G4" t="n">
+        <v>48</v>
+      </c>
+      <c r="H4" t="n">
+        <v>45</v>
+      </c>
+      <c r="I4" t="n">
+        <v>46</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44</v>
+      </c>
+      <c r="K4" t="n">
         <v>42</v>
       </c>
-      <c r="D4" t="n">
+      <c r="L4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" t="n">
         <v>41</v>
-      </c>
-      <c r="E4" t="n">
-        <v>40</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44</v>
-      </c>
-      <c r="G4" t="n">
-        <v>45</v>
-      </c>
-      <c r="H4" t="n">
-        <v>48</v>
-      </c>
-      <c r="I4" t="n">
-        <v>51</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50</v>
-      </c>
-      <c r="K4" t="n">
-        <v>49</v>
-      </c>
-      <c r="L4" t="n">
-        <v>47</v>
-      </c>
-      <c r="M4" t="n">
-        <v>46</v>
       </c>
       <c r="N4" t="n">
         <v>52</v>
@@ -3884,16 +3908,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>120.0831324054407</v>
       </c>
       <c r="U4" t="n">
-        <v>218.5371569742533</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3937,42 +3958,21 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="O5" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="P5" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>76</v>
+        <v>242.1079867120587</v>
       </c>
       <c r="S5" t="n">
-        <v>71</v>
-      </c>
-      <c r="T5" t="n">
-        <v>70</v>
-      </c>
-      <c r="U5" t="n">
-        <v>73</v>
-      </c>
-      <c r="V5" t="n">
-        <v>77</v>
-      </c>
-      <c r="W5" t="n">
-        <v>79</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>286.7248623837951</v>
-      </c>
-      <c r="Z5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4019,10 +4019,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1131.460517030347</v>
+        <v>1120.212733961401</v>
       </c>
       <c r="B7" t="n">
-        <v>2.931980609893799</v>
+        <v>1.833231687545776</v>
       </c>
     </row>
   </sheetData>
@@ -4055,28 +4055,28 @@
         <v>22</v>
       </c>
       <c r="D1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1" t="n">
         <v>23</v>
-      </c>
-      <c r="E1" t="n">
-        <v>26</v>
-      </c>
-      <c r="F1" t="n">
-        <v>28</v>
-      </c>
-      <c r="G1" t="n">
-        <v>27</v>
-      </c>
-      <c r="H1" t="n">
-        <v>29</v>
-      </c>
-      <c r="I1" t="n">
-        <v>30</v>
-      </c>
-      <c r="J1" t="n">
-        <v>25</v>
-      </c>
-      <c r="K1" t="n">
-        <v>24</v>
       </c>
       <c r="L1" t="n">
         <v>20</v>
@@ -4085,40 +4085,40 @@
         <v>0</v>
       </c>
       <c r="N1" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O1" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P1" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q1" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R1" t="n">
         <v>37</v>
       </c>
       <c r="S1" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="U1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="W1" t="n">
         <v>0</v>
       </c>
       <c r="X1" t="n">
-        <v>154.2257351310856</v>
+        <v>149.0214691703149</v>
       </c>
       <c r="Y1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -4153,54 +4153,48 @@
         <v>68</v>
       </c>
       <c r="K2" t="n">
+        <v>66</v>
+      </c>
+      <c r="L2" t="n">
         <v>69</v>
       </c>
-      <c r="L2" t="n">
-        <v>66</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q2" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="R2" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S2" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="T2" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="U2" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V2" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="W2" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>73</v>
+        <v>230.1238043251952</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>239.5979151409581</v>
-      </c>
-      <c r="AA2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4215,31 +4209,31 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
         <v>7</v>
       </c>
-      <c r="E3" t="n">
-        <v>8</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
       <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
         <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>75</v>
@@ -4254,7 +4248,7 @@
         <v>96</v>
       </c>
       <c r="Q3" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R3" t="n">
         <v>93</v>
@@ -4263,7 +4257,7 @@
         <v>92</v>
       </c>
       <c r="T3" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="U3" t="n">
         <v>100</v>
@@ -4281,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>272.0099557080569</v>
+        <v>268.329075926158</v>
       </c>
       <c r="AA3" t="n">
         <v>1</v>
@@ -4295,34 +4289,34 @@
         <v>43</v>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E4" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" t="n">
         <v>51</v>
       </c>
       <c r="H4" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J4" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K4" t="n">
+        <v>47</v>
+      </c>
+      <c r="L4" t="n">
         <v>46</v>
-      </c>
-      <c r="L4" t="n">
-        <v>42</v>
       </c>
       <c r="M4" t="n">
         <v>41</v>
@@ -4331,25 +4325,25 @@
         <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q4" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="R4" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>218.1233772290581</v>
+        <v>123.8598845326848</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4387,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="O5" t="n">
-        <v>114.4935438697478</v>
+        <v>70</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>235.0258146783028</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4448,10 +4448,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1120.211202994393</v>
+        <v>1128.120724548142</v>
       </c>
       <c r="B7" t="n">
-        <v>3.108856201171875</v>
+        <v>1.771929264068604</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +4465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4484,54 +4484,51 @@
         <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E1" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F1" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="G1" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="I1" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J1" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="K1" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="L1" t="n">
         <v>0</v>
       </c>
       <c r="M1" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N1" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O1" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P1" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R1" t="n">
-        <v>0</v>
+        <v>241.5242890063002</v>
       </c>
       <c r="S1" t="n">
-        <v>360.7721607872483</v>
-      </c>
-      <c r="T1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4549,43 +4546,43 @@
         <v>46</v>
       </c>
       <c r="E2" t="n">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>30</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>74</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>28</v>
       </c>
-      <c r="M2" t="n">
-        <v>62</v>
-      </c>
       <c r="N2" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="O2" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q2" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -4594,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>157.5744391938212</v>
+        <v>171.3907403423838</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4623,43 +4620,49 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
+        <v>51</v>
+      </c>
+      <c r="I3" t="n">
         <v>49</v>
       </c>
-      <c r="I3" t="n">
-        <v>23</v>
-      </c>
       <c r="J3" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="N3" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O3" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="S3" t="n">
-        <v>174.6799443484357</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>246.9944428630593</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4691,28 +4694,28 @@
         <v>71</v>
       </c>
       <c r="J4" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="L4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" t="n">
+        <v>38</v>
+      </c>
+      <c r="N4" t="n">
+        <v>65</v>
+      </c>
+      <c r="O4" t="n">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
         <v>39</v>
       </c>
-      <c r="M4" t="n">
-        <v>9</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25</v>
-      </c>
-      <c r="O4" t="n">
-        <v>50</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18</v>
-      </c>
       <c r="Q4" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -4721,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.0305961244214</v>
+        <v>231.5304644035969</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
@@ -4738,72 +4741,69 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M5" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N5" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R5" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="S5" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>188.1455684754349</v>
       </c>
       <c r="V5" t="n">
-        <v>241.172116845009</v>
-      </c>
-      <c r="W5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1164.229257298936</v>
+        <v>1079.585505090775</v>
       </c>
       <c r="B6" t="n">
-        <v>1.884758710861206</v>
+        <v>1.14119815826416</v>
       </c>
     </row>
   </sheetData>
@@ -4880,10 +4880,10 @@
         <v>67</v>
       </c>
       <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
         <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>46</v>
       </c>
       <c r="E2" t="n">
         <v>52</v>
@@ -4922,7 +4922,7 @@
         <v>57</v>
       </c>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
         <v>35</v>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>186.8425976349504</v>
+        <v>184.0275157399125</v>
       </c>
       <c r="U2" t="n">
         <v>1</v>
@@ -4972,13 +4972,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="O3" t="n">
         <v>11</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>198.7656014251249</v>
+        <v>215.7761856893731</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -5072,28 +5072,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="L5" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N5" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O5" t="n">
         <v>66</v>
       </c>
       <c r="P5" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>185.7614396922366</v>
+        <v>169.2371055024333</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -5154,10 +5154,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1093.315270608784</v>
+        <v>1090.986438788192</v>
       </c>
       <c r="B7" t="n">
-        <v>1.854025363922119</v>
+        <v>1.309683561325073</v>
       </c>
     </row>
   </sheetData>
@@ -5171,7 +5171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5199,13 +5199,13 @@
         <v>28</v>
       </c>
       <c r="G1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" t="n">
         <v>36</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="L1" t="n">
-        <v>106.9534096455154</v>
+        <v>99.94274093932742</v>
       </c>
       <c r="M1" t="n">
         <v>0</v>
@@ -5252,33 +5252,36 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="M2" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="N2" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O2" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P2" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="S2" t="n">
-        <v>217.061769343916</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>233.706663226245</v>
+      </c>
+      <c r="U2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,30 +5317,24 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M3" t="n">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="N3" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>64</v>
+        <v>206.9063947221201</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>240.9095722943502</v>
-      </c>
-      <c r="S3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5417,30 +5414,33 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="O5" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="P5" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="S5" t="n">
-        <v>246.1029965553298</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
+        <v>227.9615631747994</v>
+      </c>
+      <c r="U5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5525,10 +5525,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1122.095890867394</v>
+        <v>1079.585505090775</v>
       </c>
       <c r="B8" t="n">
-        <v>1.701370239257812</v>
+        <v>1.196451663970947</v>
       </c>
     </row>
   </sheetData>
@@ -5542,7 +5542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5558,69 +5558,90 @@
         <v>53</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D1" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E1" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F1" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="G1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" t="n">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J1" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="K1" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1" t="n">
         <v>67</v>
       </c>
-      <c r="L1" t="n">
-        <v>4</v>
-      </c>
       <c r="M1" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="N1" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O1" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="P1" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q1" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S1" t="n">
+        <v>82</v>
+      </c>
+      <c r="T1" t="n">
+        <v>48</v>
+      </c>
+      <c r="U1" t="n">
+        <v>47</v>
+      </c>
+      <c r="V1" t="n">
+        <v>36</v>
+      </c>
+      <c r="W1" t="n">
+        <v>49</v>
+      </c>
+      <c r="X1" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y1" t="n">
         <v>11</v>
       </c>
-      <c r="T1" t="n">
-        <v>64</v>
-      </c>
-      <c r="U1" t="n">
-        <v>49</v>
-      </c>
-      <c r="V1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W1" t="n">
-        <v>262.5987635185874</v>
-      </c>
-      <c r="X1" t="n">
+      <c r="Z1" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>244.5661572293758</v>
+      </c>
+      <c r="AE1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5686,51 +5707,21 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="V2" t="n">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="W2" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>63</v>
+        <v>270.3357679941755</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>33</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>322.4225927046951</v>
-      </c>
-      <c r="AJ2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5760,81 +5751,75 @@
         <v>24</v>
       </c>
       <c r="I3" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="K3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L3" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M3" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="P3" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R3" t="n">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="S3" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="T3" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V3" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="W3" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="X3" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC3" t="n">
         <v>8</v>
       </c>
-      <c r="Y3" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>47</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>19</v>
-      </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>318.567595863092</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>275.7261776202259</v>
-      </c>
-      <c r="AH3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5855,87 +5840,90 @@
         <v>95</v>
       </c>
       <c r="F4" t="n">
+        <v>92</v>
+      </c>
+      <c r="G4" t="n">
+        <v>37</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>98</v>
+      </c>
+      <c r="J4" t="n">
+        <v>85</v>
+      </c>
+      <c r="K4" t="n">
+        <v>93</v>
+      </c>
+      <c r="L4" t="n">
+        <v>99</v>
+      </c>
+      <c r="M4" t="n">
+        <v>96</v>
+      </c>
+      <c r="N4" t="n">
         <v>97</v>
       </c>
-      <c r="G4" t="n">
-        <v>92</v>
-      </c>
-      <c r="H4" t="n">
-        <v>59</v>
-      </c>
-      <c r="I4" t="n">
-        <v>99</v>
-      </c>
-      <c r="J4" t="n">
-        <v>93</v>
-      </c>
-      <c r="K4" t="n">
-        <v>85</v>
-      </c>
-      <c r="L4" t="n">
-        <v>98</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>60</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>13</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>87</v>
       </c>
-      <c r="R4" t="n">
-        <v>100</v>
-      </c>
       <c r="S4" t="n">
+        <v>42</v>
+      </c>
+      <c r="T4" t="n">
+        <v>43</v>
+      </c>
+      <c r="U4" t="n">
+        <v>14</v>
+      </c>
+      <c r="V4" t="n">
         <v>44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>14</v>
-      </c>
-      <c r="U4" t="n">
-        <v>38</v>
-      </c>
-      <c r="V4" t="n">
-        <v>86</v>
       </c>
       <c r="W4" t="n">
         <v>16</v>
       </c>
       <c r="X4" t="n">
+        <v>86</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z4" t="n">
         <v>61</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AA4" t="n">
         <v>84</v>
       </c>
-      <c r="Z4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.1399763986292</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
+        <v>215.4861675130305</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1060.887510242138</v>
+        <v>1048.955688599674</v>
       </c>
       <c r="B5" t="n">
-        <v>2.152502059936523</v>
+        <v>2.011658668518066</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajos/Trabajo_1/Code/mtVRP_Cristian_Alzate_Urrea_Noise.xlsx
+++ b/Trabajos/Trabajo_1/Code/mtVRP_Cristian_Alzate_Urrea_Noise.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mtVRP1.txt" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="mtVRP10.txt" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="mtVRP11.txt" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="mtVRP12.txt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="mtVRP2.txt" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="mtVRP3.txt" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="mtVRP4.txt" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="mtVRP5.txt" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="mtVRP6.txt" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mtVRP7.txt" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mtVRP8.txt" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mtVRP9.txt" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP1.txt" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP10.txt" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP11.txt" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP12.txt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP2.txt" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP3.txt" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP4.txt" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP5.txt" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP6.txt" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP7.txt" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP8.txt" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP9.txt" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,67 +459,85 @@
         <v>53</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1" t="n">
+        <v>72</v>
+      </c>
+      <c r="H1" t="n">
+        <v>74</v>
+      </c>
+      <c r="I1" t="n">
+        <v>75</v>
+      </c>
+      <c r="J1" t="n">
+        <v>56</v>
+      </c>
+      <c r="K1" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1" t="n">
+        <v>67</v>
+      </c>
+      <c r="M1" t="n">
+        <v>25</v>
+      </c>
+      <c r="N1" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="n">
         <v>13</v>
       </c>
-      <c r="E1" t="n">
+      <c r="R1" t="n">
         <v>87</v>
       </c>
-      <c r="F1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G1" t="n">
-        <v>41</v>
-      </c>
-      <c r="H1" t="n">
-        <v>72</v>
-      </c>
-      <c r="I1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J1" t="n">
-        <v>54</v>
-      </c>
-      <c r="K1" t="n">
-        <v>29</v>
-      </c>
-      <c r="L1" t="n">
-        <v>81</v>
-      </c>
-      <c r="M1" t="n">
-        <v>33</v>
-      </c>
-      <c r="N1" t="n">
-        <v>51</v>
-      </c>
-      <c r="O1" t="n">
-        <v>9</v>
-      </c>
-      <c r="P1" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R1" t="n">
-        <v>31</v>
-      </c>
       <c r="S1" t="n">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="T1" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="U1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V1" t="n">
-        <v>217.708430377752</v>
+        <v>82</v>
       </c>
       <c r="W1" t="n">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="X1" t="n">
+        <v>47</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>237.1338810142637</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -530,67 +548,67 @@
         <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G2" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="J2" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K2" t="n">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="L2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="N2" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="P2" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="n">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="R2" t="n">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="S2" t="n">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="T2" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="V2" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="W2" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="X2" t="n">
         <v>49</v>
@@ -599,18 +617,12 @@
         <v>64</v>
       </c>
       <c r="Z2" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>324.4410881653033</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>297.2142236968742</v>
-      </c>
-      <c r="AD2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -619,105 +631,96 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I3" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>23</v>
       </c>
       <c r="K3" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L3" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="P3" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="Q3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="T3" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="U3" t="n">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="V3" t="n">
+        <v>63</v>
+      </c>
+      <c r="W3" t="n">
+        <v>32</v>
+      </c>
+      <c r="X3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC3" t="n">
         <v>30</v>
       </c>
-      <c r="W3" t="n">
-        <v>20</v>
-      </c>
-      <c r="X3" t="n">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>63</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>19</v>
-      </c>
       <c r="AD3" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>7</v>
+        <v>278.2772778518487</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>364.2771738180314</v>
-      </c>
-      <c r="AI3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -741,102 +744,87 @@
         <v>97</v>
       </c>
       <c r="G4" t="n">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
         <v>98</v>
       </c>
       <c r="I4" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K4" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" t="n">
+        <v>99</v>
+      </c>
+      <c r="M4" t="n">
+        <v>96</v>
+      </c>
+      <c r="N4" t="n">
+        <v>60</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>18</v>
+      </c>
+      <c r="R4" t="n">
+        <v>83</v>
+      </c>
+      <c r="S4" t="n">
+        <v>84</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>61</v>
+      </c>
+      <c r="V4" t="n">
         <v>16</v>
       </c>
-      <c r="M4" t="n">
+      <c r="W4" t="n">
+        <v>86</v>
+      </c>
+      <c r="X4" t="n">
         <v>44</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Y4" t="n">
         <v>14</v>
       </c>
-      <c r="O4" t="n">
-        <v>43</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="Z4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA4" t="n">
         <v>57</v>
       </c>
-      <c r="R4" t="n">
-        <v>42</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>52</v>
-      </c>
-      <c r="U4" t="n">
-        <v>18</v>
-      </c>
-      <c r="V4" t="n">
-        <v>60</v>
-      </c>
-      <c r="W4" t="n">
-        <v>83</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>84</v>
-      </c>
       <c r="AB4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC4" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>85</v>
+        <v>202.6911708418168</v>
       </c>
       <c r="AE4" t="n">
-        <v>93</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>59</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>209.2530876982496</v>
-      </c>
-      <c r="AJ4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1088.452915590907</v>
+        <v>1042.543417873233</v>
       </c>
       <c r="B5" t="n">
-        <v>1.74029541015625</v>
+        <v>2.007930755615234</v>
       </c>
     </row>
   </sheetData>
@@ -850,7 +838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,70 +881,76 @@
         <v>142</v>
       </c>
       <c r="L1" t="n">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="M1" t="n">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="N1" t="n">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O1" t="n">
+        <v>143</v>
+      </c>
+      <c r="P1" t="n">
         <v>141</v>
       </c>
-      <c r="P1" t="n">
-        <v>19</v>
-      </c>
       <c r="Q1" t="n">
         <v>0</v>
       </c>
       <c r="R1" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="S1" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="T1" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="U1" t="n">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="V1" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="W1" t="n">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="X1" t="n">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="Y1" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Z1" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA1" t="n">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="AB1" t="n">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="AC1" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="AD1" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AE1" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF1" t="n">
-        <v>262.8541610160667</v>
+        <v>92</v>
       </c>
       <c r="AG1" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>171.5485556043235</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -976,63 +970,87 @@
         <v>119</v>
       </c>
       <c r="F2" t="n">
+        <v>51</v>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>120</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>80</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>22</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>101</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>3</v>
       </c>
-      <c r="L2" t="n">
-        <v>121</v>
-      </c>
       <c r="M2" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N2" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="O2" t="n">
         <v>35</v>
       </c>
       <c r="P2" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="Q2" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="R2" t="n">
         <v>128</v>
       </c>
       <c r="S2" t="n">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="V2" t="n">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="X2" t="n">
-        <v>272.8136384801012</v>
+        <v>97</v>
       </c>
       <c r="Y2" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>86</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>99</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>114</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>252.7142922136479</v>
+      </c>
+      <c r="AG2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,88 +1062,88 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
         <v>56</v>
       </c>
-      <c r="D3" t="n">
-        <v>47</v>
-      </c>
       <c r="E3" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F3" t="n">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="G3" t="n">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="I3" t="n">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="K3" t="n">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="L3" t="n">
+        <v>134</v>
+      </c>
+      <c r="M3" t="n">
         <v>67</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13</v>
       </c>
       <c r="N3" t="n">
         <v>110</v>
       </c>
       <c r="O3" t="n">
+        <v>96</v>
+      </c>
+      <c r="P3" t="n">
         <v>140</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="S3" t="n">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="T3" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U3" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="V3" t="n">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="W3" t="n">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="X3" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="Y3" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Z3" t="n">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="AA3" t="n">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="AB3" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>328.6114222046571</v>
+        <v>358.3276411805442</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1145,84 +1163,81 @@
         <v>126</v>
       </c>
       <c r="E4" t="n">
+        <v>127</v>
+      </c>
+      <c r="F4" t="n">
+        <v>53</v>
+      </c>
+      <c r="G4" t="n">
+        <v>129</v>
+      </c>
+      <c r="H4" t="n">
+        <v>131</v>
+      </c>
+      <c r="I4" t="n">
+        <v>83</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>100</v>
+      </c>
+      <c r="L4" t="n">
         <v>16</v>
       </c>
-      <c r="F4" t="n">
-        <v>127</v>
-      </c>
-      <c r="G4" t="n">
-        <v>53</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29</v>
-      </c>
-      <c r="I4" t="n">
-        <v>129</v>
-      </c>
-      <c r="J4" t="n">
-        <v>131</v>
-      </c>
-      <c r="K4" t="n">
-        <v>83</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="P4" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="R4" t="n">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="S4" t="n">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="T4" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="U4" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="V4" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="W4" t="n">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="Y4" t="n">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AA4" t="n">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="AB4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>178.292796902432</v>
       </c>
       <c r="AD4" t="n">
-        <v>157.4395363477844</v>
-      </c>
-      <c r="AE4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1231,99 +1246,60 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="E5" t="n">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G5" t="n">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I5" t="n">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="K5" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="L5" t="n">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N5" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="P5" t="n">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>52</v>
+        <v>222.5970734930566</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
-      </c>
-      <c r="U5" t="n">
-        <v>65</v>
-      </c>
-      <c r="V5" t="n">
-        <v>93</v>
-      </c>
-      <c r="W5" t="n">
-        <v>42</v>
-      </c>
-      <c r="X5" t="n">
-        <v>64</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>88</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>136</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>134</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>226.4577100874501</v>
-      </c>
-      <c r="AG5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,90 +1308,102 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="G6" t="n">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="H6" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="J6" t="n">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="K6" t="n">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="L6" t="n">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N6" t="n">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="Q6" t="n">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="R6" t="n">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="S6" t="n">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="T6" t="n">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="U6" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V6" t="n">
+        <v>94</v>
+      </c>
+      <c r="W6" t="n">
         <v>41</v>
       </c>
-      <c r="W6" t="n">
-        <v>94</v>
-      </c>
       <c r="X6" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Z6" t="n">
-        <v>156.9138212005414</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>57</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>232.9371474365354</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1405.090289336601</v>
+        <v>1416.417506830539</v>
       </c>
       <c r="B7" t="n">
-        <v>3.741228342056274</v>
+        <v>4.378315687179565</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:AZ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1448,117 +1436,135 @@
         <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="E1" t="n">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F1" t="n">
+        <v>111</v>
+      </c>
+      <c r="G1" t="n">
+        <v>58</v>
+      </c>
+      <c r="H1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1" t="n">
+        <v>179</v>
+      </c>
+      <c r="J1" t="n">
+        <v>99</v>
+      </c>
+      <c r="K1" t="n">
+        <v>167</v>
+      </c>
+      <c r="L1" t="n">
+        <v>65</v>
+      </c>
+      <c r="M1" t="n">
+        <v>34</v>
+      </c>
+      <c r="N1" t="n">
+        <v>149</v>
+      </c>
+      <c r="O1" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="n">
         <v>195</v>
       </c>
-      <c r="G1" t="n">
-        <v>53</v>
-      </c>
-      <c r="H1" t="n">
-        <v>198</v>
-      </c>
-      <c r="I1" t="n">
-        <v>158</v>
-      </c>
-      <c r="J1" t="n">
-        <v>192</v>
-      </c>
-      <c r="K1" t="n">
-        <v>184</v>
-      </c>
-      <c r="L1" t="n">
-        <v>160</v>
-      </c>
-      <c r="M1" t="n">
+      <c r="R1" t="n">
+        <v>23</v>
+      </c>
+      <c r="S1" t="n">
+        <v>62</v>
+      </c>
+      <c r="T1" t="n">
+        <v>185</v>
+      </c>
+      <c r="U1" t="n">
+        <v>90</v>
+      </c>
+      <c r="V1" t="n">
         <v>115</v>
       </c>
-      <c r="N1" t="n">
-        <v>23</v>
-      </c>
-      <c r="O1" t="n">
-        <v>116</v>
-      </c>
-      <c r="P1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>16</v>
-      </c>
-      <c r="R1" t="n">
-        <v>117</v>
-      </c>
-      <c r="S1" t="n">
-        <v>182</v>
-      </c>
-      <c r="T1" t="n">
-        <v>49</v>
-      </c>
-      <c r="U1" t="n">
-        <v>74</v>
-      </c>
-      <c r="V1" t="n">
-        <v>144</v>
-      </c>
       <c r="W1" t="n">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="X1" t="n">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="Y1" t="n">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="Z1" t="n">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="AA1" t="n">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="AB1" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AC1" t="n">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="AD1" t="n">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="AE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>153</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>79</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>124</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>166</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>83</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN1" t="n">
         <v>133</v>
       </c>
-      <c r="AF1" t="n">
+      <c r="AO1" t="n">
+        <v>84</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>134</v>
+      </c>
+      <c r="AQ1" t="n">
         <v>164</v>
       </c>
-      <c r="AG1" t="n">
-        <v>165</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>77</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>131</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>298.0862082392791</v>
-      </c>
-      <c r="AO1" t="n">
+      <c r="AR1" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>399.7535201937072</v>
+      </c>
+      <c r="AU1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1567,136 +1573,157 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C2" t="n">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
+        <v>139</v>
+      </c>
+      <c r="F2" t="n">
+        <v>157</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>112</v>
+      </c>
+      <c r="I2" t="n">
+        <v>66</v>
+      </c>
+      <c r="J2" t="n">
+        <v>196</v>
+      </c>
+      <c r="K2" t="n">
+        <v>191</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>136</v>
+      </c>
+      <c r="N2" t="n">
+        <v>197</v>
+      </c>
+      <c r="O2" t="n">
+        <v>190</v>
+      </c>
+      <c r="P2" t="n">
+        <v>160</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>151</v>
+      </c>
+      <c r="S2" t="n">
         <v>76</v>
       </c>
-      <c r="F2" t="n">
+      <c r="T2" t="n">
         <v>40</v>
       </c>
-      <c r="G2" t="n">
+      <c r="U2" t="n">
         <v>130</v>
       </c>
-      <c r="H2" t="n">
+      <c r="V2" t="n">
         <v>187</v>
       </c>
-      <c r="I2" t="n">
+      <c r="W2" t="n">
         <v>97</v>
       </c>
-      <c r="J2" t="n">
+      <c r="X2" t="n">
         <v>161</v>
       </c>
-      <c r="K2" t="n">
+      <c r="Y2" t="n">
         <v>9</v>
       </c>
-      <c r="L2" t="n">
+      <c r="Z2" t="n">
+        <v>109</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB2" t="n">
         <v>75</v>
       </c>
-      <c r="M2" t="n">
-        <v>189</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>125</v>
-      </c>
-      <c r="P2" t="n">
-        <v>98</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>45</v>
-      </c>
-      <c r="R2" t="n">
-        <v>29</v>
-      </c>
-      <c r="S2" t="n">
-        <v>59</v>
-      </c>
-      <c r="T2" t="n">
-        <v>5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>103</v>
-      </c>
-      <c r="V2" t="n">
-        <v>88</v>
-      </c>
-      <c r="W2" t="n">
-        <v>37</v>
-      </c>
-      <c r="X2" t="n">
-        <v>138</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>154</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>123</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
       <c r="AC2" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="AG2" t="n">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="AH2" t="n">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="AL2" t="n">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="n">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="AO2" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="AR2" t="n">
-        <v>263.9175433841723</v>
+        <v>148</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>57</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>165</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>35</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>396.5750299458528</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1704,168 +1731,156 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="D3" t="n">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="F3" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G3" t="n">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="L3" t="n">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="M3" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="N3" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
+        <v>77</v>
+      </c>
+      <c r="P3" t="n">
+        <v>119</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>189</v>
+      </c>
+      <c r="R3" t="n">
+        <v>145</v>
+      </c>
+      <c r="S3" t="n">
+        <v>116</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>86</v>
+      </c>
+      <c r="V3" t="n">
+        <v>101</v>
+      </c>
+      <c r="W3" t="n">
+        <v>28</v>
+      </c>
+      <c r="X3" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>156</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>93</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>186</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC3" t="n">
         <v>141</v>
       </c>
-      <c r="P3" t="n">
-        <v>105</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>87</v>
-      </c>
-      <c r="T3" t="n">
-        <v>111</v>
-      </c>
-      <c r="U3" t="n">
-        <v>58</v>
-      </c>
-      <c r="V3" t="n">
-        <v>27</v>
-      </c>
-      <c r="W3" t="n">
-        <v>179</v>
-      </c>
-      <c r="X3" t="n">
-        <v>99</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>167</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>176</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
       <c r="AD3" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AE3" t="n">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="AH3" t="n">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="AK3" t="n">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="AL3" t="n">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AM3" t="n">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="AO3" t="n">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AQ3" t="n">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="AR3" t="n">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="AT3" t="n">
+        <v>92</v>
+      </c>
+      <c r="AU3" t="n">
         <v>163</v>
       </c>
-      <c r="AU3" t="n">
-        <v>148</v>
-      </c>
       <c r="AV3" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AW3" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>18</v>
+        <v>391.2576352856836</v>
       </c>
       <c r="AZ3" t="n">
-        <v>73</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>137</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>403.0541459764304</v>
-      </c>
-      <c r="BD3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1874,127 +1889,130 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="E4" t="n">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="G4" t="n">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="I4" t="n">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="J4" t="n">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K4" t="n">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="L4" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="M4" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="O4" t="n">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="P4" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>59</v>
+      </c>
+      <c r="S4" t="n">
+        <v>103</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>37</v>
+      </c>
+      <c r="V4" t="n">
+        <v>88</v>
+      </c>
+      <c r="W4" t="n">
+        <v>138</v>
+      </c>
+      <c r="X4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>154</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>117</v>
+      </c>
+      <c r="AB4" t="n">
         <v>3</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AC4" t="n">
         <v>55</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AD4" t="n">
         <v>44</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AE4" t="n">
         <v>106</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AF4" t="n">
         <v>32</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AG4" t="n">
         <v>72</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AH4" t="n">
         <v>118</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AI4" t="n">
         <v>56</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AJ4" t="n">
         <v>25</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AK4" t="n">
         <v>110</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AL4" t="n">
         <v>162</v>
       </c>
-      <c r="AA4" t="n">
-        <v>31</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>145</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>104</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>183</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>62</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>185</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>143</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>89</v>
-      </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>327.8195092539199</v>
+        <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1</v>
+        <v>252.745049849089</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2008,153 +2026,123 @@
         <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="E5" t="n">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="F5" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="I5" t="n">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="J5" t="n">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="K5" t="n">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M5" t="n">
+        <v>14</v>
+      </c>
+      <c r="N5" t="n">
+        <v>123</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>193</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>194</v>
+      </c>
+      <c r="R5" t="n">
+        <v>158</v>
+      </c>
+      <c r="S5" t="n">
+        <v>198</v>
+      </c>
+      <c r="T5" t="n">
+        <v>53</v>
+      </c>
+      <c r="U5" t="n">
+        <v>192</v>
+      </c>
+      <c r="V5" t="n">
+        <v>184</v>
+      </c>
+      <c r="W5" t="n">
+        <v>43</v>
+      </c>
+      <c r="X5" t="n">
+        <v>199</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>132</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>180</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>69</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>108</v>
+      </c>
+      <c r="AG5" t="n">
         <v>52</v>
       </c>
-      <c r="N5" t="n">
+      <c r="AH5" t="n">
         <v>11</v>
       </c>
-      <c r="O5" t="n">
+      <c r="AI5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>85</v>
       </c>
-      <c r="P5" t="n">
-        <v>177</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>112</v>
-      </c>
-      <c r="S5" t="n">
-        <v>101</v>
-      </c>
-      <c r="T5" t="n">
-        <v>64</v>
-      </c>
-      <c r="U5" t="n">
-        <v>94</v>
-      </c>
-      <c r="V5" t="n">
-        <v>140</v>
-      </c>
-      <c r="W5" t="n">
-        <v>121</v>
-      </c>
-      <c r="X5" t="n">
-        <v>82</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>174</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>155</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>122</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>166</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>124</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>172</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>171</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>47</v>
-      </c>
       <c r="AK5" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>48</v>
+        <v>261.9748996860145</v>
       </c>
       <c r="AN5" t="n">
-        <v>114</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>142</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>91</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>113</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>68</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>358.0523613217298</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1650.929768175532</v>
+        <v>1702.306134960347</v>
       </c>
       <c r="B6" t="n">
-        <v>6.988395214080811</v>
+        <v>7.687767028808594</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +2156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2187,102 +2175,117 @@
         <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E1" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F1" t="n">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="G1" t="n">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="H1" t="n">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="I1" t="n">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="J1" t="n">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="K1" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L1" t="n">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="M1" t="n">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="N1" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="O1" t="n">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="P1" t="n">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="Q1" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1" t="n">
+        <v>107</v>
+      </c>
+      <c r="S1" t="n">
+        <v>24</v>
+      </c>
+      <c r="T1" t="n">
+        <v>144</v>
+      </c>
+      <c r="U1" t="n">
+        <v>74</v>
+      </c>
+      <c r="V1" t="n">
+        <v>183</v>
+      </c>
+      <c r="W1" t="n">
+        <v>62</v>
+      </c>
+      <c r="X1" t="n">
+        <v>185</v>
+      </c>
+      <c r="Y1" t="n">
         <v>42</v>
       </c>
-      <c r="R1" t="n">
-        <v>154</v>
-      </c>
-      <c r="S1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T1" t="n">
-        <v>48</v>
-      </c>
-      <c r="U1" t="n">
-        <v>103</v>
-      </c>
-      <c r="V1" t="n">
-        <v>5</v>
-      </c>
-      <c r="W1" t="n">
-        <v>88</v>
-      </c>
-      <c r="X1" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>138</v>
-      </c>
       <c r="Z1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA1" t="n">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="AB1" t="n">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="AC1" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AD1" t="n">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="AE1" t="n">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="AF1" t="n">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="AG1" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AH1" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="AI1" t="n">
-        <v>286.0141974846234</v>
+        <v>163</v>
       </c>
       <c r="AJ1" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>118</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>310.5341911633141</v>
+      </c>
+      <c r="AO1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2291,138 +2294,150 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>157</v>
+      </c>
+      <c r="H2" t="n">
+        <v>86</v>
+      </c>
+      <c r="I2" t="n">
+        <v>112</v>
+      </c>
+      <c r="J2" t="n">
         <v>66</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>196</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>191</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>136</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>197</v>
       </c>
-      <c r="L2" t="n">
-        <v>184</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>190</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>116</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>117</v>
-      </c>
       <c r="R2" t="n">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="S2" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="U2" t="n">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="V2" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="W2" t="n">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="Y2" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="n">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="AC2" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="AF2" t="n">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="AI2" t="n">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="AJ2" t="n">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AL2" t="n">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="AM2" t="n">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="n">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="AP2" t="n">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AS2" t="n">
-        <v>320.467414393579</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
+        <v>189</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>348.3686172945852</v>
+      </c>
+      <c r="AX2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2431,168 +2446,171 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="F3" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G3" t="n">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="L3" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M3" t="n">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="O3" t="n">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="P3" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="R3" t="n">
-        <v>195</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T3" t="n">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="U3" t="n">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="V3" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="W3" t="n">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="X3" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>57</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>64</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>156</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>93</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>141</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>91</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>113</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>68</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>143</v>
+      </c>
+      <c r="AN3" t="n">
         <v>90</v>
       </c>
-      <c r="Z3" t="n">
-        <v>143</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>64</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>94</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>121</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>82</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>174</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>173</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>171</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>47</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
       <c r="AO3" t="n">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="AP3" t="n">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AS3" t="n">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="AT3" t="n">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="AU3" t="n">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="AV3" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="AW3" t="n">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="AX3" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="AY3" t="n">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AZ3" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="BA3" t="n">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="BC3" t="n">
-        <v>341.0169747570642</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
+        <v>431.5241769451449</v>
+      </c>
+      <c r="BE3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,138 +2619,132 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C4" t="n">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="E4" t="n">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="F4" t="n">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="G4" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="K4" t="n">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="L4" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="O4" t="n">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P4" t="n">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R4" t="n">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="S4" t="n">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="V4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W4" t="n">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="X4" t="n">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="Z4" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="AC4" t="n">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AE4" t="n">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="AG4" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AH4" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="AJ4" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="n">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AL4" t="n">
         <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="AN4" t="n">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="AO4" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>310.3913553639339</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>363.7257116683591</v>
-      </c>
-      <c r="AT4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2744,156 +2756,132 @@
         <v>127</v>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D5" t="n">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F5" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G5" t="n">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="H5" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="K5" t="n">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="L5" t="n">
+        <v>176</v>
+      </c>
+      <c r="M5" t="n">
+        <v>78</v>
+      </c>
+      <c r="N5" t="n">
+        <v>177</v>
+      </c>
+      <c r="O5" t="n">
+        <v>154</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>193</v>
+      </c>
+      <c r="R5" t="n">
+        <v>194</v>
+      </c>
+      <c r="S5" t="n">
+        <v>158</v>
+      </c>
+      <c r="T5" t="n">
+        <v>198</v>
+      </c>
+      <c r="U5" t="n">
+        <v>53</v>
+      </c>
+      <c r="V5" t="n">
+        <v>195</v>
+      </c>
+      <c r="W5" t="n">
+        <v>192</v>
+      </c>
+      <c r="X5" t="n">
+        <v>184</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>120</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>151</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>44</v>
-      </c>
-      <c r="R5" t="n">
-        <v>32</v>
-      </c>
-      <c r="S5" t="n">
-        <v>97</v>
-      </c>
-      <c r="T5" t="n">
-        <v>161</v>
-      </c>
-      <c r="U5" t="n">
-        <v>9</v>
-      </c>
-      <c r="V5" t="n">
-        <v>39</v>
-      </c>
-      <c r="W5" t="n">
-        <v>109</v>
-      </c>
-      <c r="X5" t="n">
-        <v>57</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>159</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>104</v>
-      </c>
       <c r="AC5" t="n">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="AD5" t="n">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="AE5" t="n">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="AF5" t="n">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="AH5" t="n">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="n">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="AL5" t="n">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="AM5" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>162</v>
+        <v>301.0303429213319</v>
       </c>
       <c r="AP5" t="n">
-        <v>31</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>131</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>165</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>164</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>84</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>422.3517765522543</v>
-      </c>
-      <c r="AX5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1733.57607485588</v>
+        <v>1701.84868368831</v>
       </c>
       <c r="B6" t="n">
-        <v>7.004647016525269</v>
+        <v>7.8194899559021</v>
       </c>
     </row>
   </sheetData>
@@ -2907,7 +2895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2970,45 +2958,48 @@
         <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
         <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L2" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>130.5657889173416</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>132.7479044368525</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3053,13 +3044,31 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
-        <v>120.5019451603424</v>
+        <v>5</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>16</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>236.7079804683282</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3070,75 +3079,54 @@
         <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>125.8533754714655</v>
       </c>
       <c r="P4" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>24</v>
-      </c>
-      <c r="R4" t="n">
-        <v>23</v>
-      </c>
-      <c r="S4" t="n">
-        <v>7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>43</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>236.3815958773712</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>610.0271005656808</v>
+        <v>617.8870309872718</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5200498104095459</v>
+        <v>0.584869384765625</v>
       </c>
     </row>
   </sheetData>
@@ -3168,124 +3156,115 @@
         <v>88</v>
       </c>
       <c r="C1" t="n">
+        <v>82</v>
+      </c>
+      <c r="D1" t="n">
         <v>111</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>86</v>
       </c>
-      <c r="E1" t="n">
+      <c r="F1" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1" t="n">
+        <v>92</v>
+      </c>
+      <c r="H1" t="n">
+        <v>89</v>
+      </c>
+      <c r="I1" t="n">
         <v>85</v>
       </c>
-      <c r="F1" t="n">
+      <c r="J1" t="n">
         <v>112</v>
       </c>
-      <c r="G1" t="n">
+      <c r="K1" t="n">
+        <v>117</v>
+      </c>
+      <c r="L1" t="n">
+        <v>113</v>
+      </c>
+      <c r="M1" t="n">
+        <v>83</v>
+      </c>
+      <c r="N1" t="n">
         <v>84</v>
       </c>
-      <c r="H1" t="n">
-        <v>117</v>
-      </c>
-      <c r="I1" t="n">
-        <v>113</v>
-      </c>
-      <c r="J1" t="n">
-        <v>83</v>
-      </c>
-      <c r="K1" t="n">
-        <v>118</v>
-      </c>
-      <c r="L1" t="n">
-        <v>18</v>
-      </c>
-      <c r="M1" t="n">
-        <v>114</v>
-      </c>
-      <c r="N1" t="n">
-        <v>108</v>
-      </c>
       <c r="O1" t="n">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="P1" t="n">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="Q1" t="n">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="R1" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="S1" t="n">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="T1" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="U1" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="V1" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="W1" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="X1" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="Y1" t="n">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="Z1" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AA1" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AB1" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="AC1" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="AD1" t="n">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AE1" t="n">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="AF1" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AG1" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AH1" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AI1" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="AJ1" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="AK1" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AL1" t="n">
-        <v>37</v>
+        <v>264.2105382833472</v>
       </c>
       <c r="AM1" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>319.0688899641541</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -3293,124 +3272,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C2" t="n">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="G2" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
+        <v>99</v>
+      </c>
+      <c r="I2" t="n">
+        <v>101</v>
+      </c>
+      <c r="J2" t="n">
+        <v>102</v>
+      </c>
+      <c r="K2" t="n">
+        <v>116</v>
+      </c>
+      <c r="L2" t="n">
+        <v>98</v>
+      </c>
+      <c r="M2" t="n">
+        <v>110</v>
+      </c>
+      <c r="N2" t="n">
+        <v>115</v>
+      </c>
+      <c r="O2" t="n">
         <v>97</v>
       </c>
-      <c r="I2" t="n">
-        <v>96</v>
-      </c>
-      <c r="J2" t="n">
-        <v>93</v>
-      </c>
-      <c r="K2" t="n">
-        <v>95</v>
-      </c>
-      <c r="L2" t="n">
-        <v>102</v>
-      </c>
-      <c r="M2" t="n">
-        <v>105</v>
-      </c>
-      <c r="N2" t="n">
-        <v>106</v>
-      </c>
-      <c r="O2" t="n">
-        <v>107</v>
-      </c>
       <c r="P2" t="n">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="Q2" t="n">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="R2" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S2" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="V2" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="W2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="AC2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AD2" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AM2" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>297.8438942609126</v>
+        <v>423.3945737284314</v>
       </c>
       <c r="AP2" t="n">
         <v>1</v>
@@ -3421,67 +3400,103 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
+        <v>120</v>
+      </c>
+      <c r="C3" t="n">
         <v>119</v>
       </c>
-      <c r="C3" t="n">
-        <v>81</v>
-      </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
         <v>9</v>
       </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>11</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>15</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>14</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>13</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>8</v>
       </c>
-      <c r="M3" t="n">
-        <v>12</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4</v>
-      </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="U3" t="n">
-        <v>241.1857721527297</v>
+        <v>59</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="W3" t="n">
+        <v>61</v>
+      </c>
+      <c r="X3" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>58</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>56</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>66</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>429.5758048187309</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3489,111 +3504,84 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I4" t="n">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="L4" t="n">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="M4" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="O4" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="P4" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R4" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="S4" t="n">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="T4" t="n">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="U4" t="n">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="V4" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>62</v>
+        <v>209.9118586580163</v>
       </c>
       <c r="Y4" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>66</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>63</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>58</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>56</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>419.5589582517185</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1277.657514629515</v>
+        <v>1327.092775488526</v>
       </c>
       <c r="B5" t="n">
-        <v>2.497235536575317</v>
+        <v>2.867418050765991</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3626,25 +3614,25 @@
         <v>22</v>
       </c>
       <c r="D1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H1" t="n">
         <v>30</v>
       </c>
       <c r="I1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K1" t="n">
         <v>23</v>
@@ -3662,10 +3650,10 @@
         <v>15</v>
       </c>
       <c r="P1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="n">
         <v>16</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>14</v>
       </c>
       <c r="R1" t="n">
         <v>12</v>
@@ -3683,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="W1" t="n">
-        <v>194.7882321643657</v>
+        <v>203.7932463154175</v>
       </c>
       <c r="X1" t="n">
         <v>1</v>
@@ -3721,10 +3709,10 @@
         <v>68</v>
       </c>
       <c r="K2" t="n">
+        <v>69</v>
+      </c>
+      <c r="L2" t="n">
         <v>66</v>
-      </c>
-      <c r="L2" t="n">
-        <v>69</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3739,10 +3727,10 @@
         <v>94</v>
       </c>
       <c r="Q2" t="n">
+        <v>93</v>
+      </c>
+      <c r="R2" t="n">
         <v>92</v>
-      </c>
-      <c r="R2" t="n">
-        <v>93</v>
       </c>
       <c r="S2" t="n">
         <v>81</v>
@@ -3754,21 +3742,18 @@
         <v>76</v>
       </c>
       <c r="V2" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W2" t="n">
         <v>70</v>
       </c>
       <c r="X2" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>235.3505060185557</v>
       </c>
       <c r="Z2" t="n">
-        <v>235.171657347285</v>
-      </c>
-      <c r="AA2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3795,22 +3780,22 @@
         <v>8</v>
       </c>
       <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
         <v>7</v>
       </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
       <c r="K3" t="n">
+        <v>75</v>
+      </c>
+      <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>75</v>
       </c>
       <c r="N3" t="n">
         <v>98</v>
@@ -3819,13 +3804,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q3" t="n">
         <v>57</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>59</v>
-      </c>
-      <c r="R3" t="n">
-        <v>55</v>
       </c>
       <c r="S3" t="n">
         <v>54</v>
@@ -3846,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>206.3314535183752</v>
+        <v>195.7227219790358</v>
       </c>
       <c r="Z3" t="n">
         <v>1</v>
@@ -3866,10 +3851,10 @@
         <v>49</v>
       </c>
       <c r="E4" t="n">
+        <v>52</v>
+      </c>
+      <c r="F4" t="n">
         <v>50</v>
-      </c>
-      <c r="F4" t="n">
-        <v>51</v>
       </c>
       <c r="G4" t="n">
         <v>48</v>
@@ -3878,22 +3863,22 @@
         <v>45</v>
       </c>
       <c r="I4" t="n">
+        <v>44</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L4" t="n">
+        <v>41</v>
+      </c>
+      <c r="M4" t="n">
         <v>46</v>
       </c>
-      <c r="J4" t="n">
-        <v>44</v>
-      </c>
-      <c r="K4" t="n">
-        <v>42</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40</v>
-      </c>
-      <c r="M4" t="n">
-        <v>41</v>
-      </c>
       <c r="N4" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O4" t="n">
         <v>31</v>
@@ -3911,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>120.0831324054407</v>
+        <v>118.1600374117112</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -3943,10 +3928,10 @@
         <v>82</v>
       </c>
       <c r="I5" t="n">
+        <v>87</v>
+      </c>
+      <c r="J5" t="n">
         <v>86</v>
-      </c>
-      <c r="J5" t="n">
-        <v>87</v>
       </c>
       <c r="K5" t="n">
         <v>91</v>
@@ -3958,21 +3943,24 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>80</v>
+      </c>
+      <c r="O5" t="n">
         <v>79</v>
       </c>
-      <c r="O5" t="n">
-        <v>80</v>
-      </c>
       <c r="P5" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="R5" t="n">
-        <v>242.1079867120587</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>233.8095943545949</v>
+      </c>
+      <c r="T5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4019,10 +4007,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1120.212733961401</v>
+        <v>1108.566377893191</v>
       </c>
       <c r="B7" t="n">
-        <v>1.833231687545776</v>
+        <v>1.982712268829346</v>
       </c>
     </row>
   </sheetData>
@@ -4085,40 +4073,43 @@
         <v>0</v>
       </c>
       <c r="N1" t="n">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="O1" t="n">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="P1" t="n">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="Q1" t="n">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="R1" t="n">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="S1" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="T1" t="n">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="U1" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="V1" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="W1" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="X1" t="n">
-        <v>149.0214691703149</v>
+        <v>0</v>
       </c>
       <c r="Y1" t="n">
-        <v>0</v>
+        <v>229.0088089551483</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -4162,37 +4153,37 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="O2" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="P2" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="R2" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="S2" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="T2" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="V2" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>230.1238043251952</v>
+        <v>167.302789881899</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -4230,52 +4221,52 @@
         <v>7</v>
       </c>
       <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
         <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>75</v>
       </c>
       <c r="N3" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="P3" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="R3" t="n">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="S3" t="n">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="T3" t="n">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="U3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="V3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X3" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>268.329075926158</v>
+        <v>262.6415508742868</v>
       </c>
       <c r="AA3" t="n">
         <v>1</v>
@@ -4292,37 +4283,37 @@
         <v>42</v>
       </c>
       <c r="D4" t="n">
+        <v>41</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" t="n">
         <v>44</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>45</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>48</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>51</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>50</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>52</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>49</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>47</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>46</v>
-      </c>
-      <c r="M4" t="n">
-        <v>41</v>
-      </c>
-      <c r="N4" t="n">
-        <v>40</v>
       </c>
       <c r="O4" t="n">
         <v>59</v>
@@ -4340,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>123.8598845326848</v>
+        <v>125.1150522424626</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -4354,52 +4345,43 @@
         <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" t="n">
+        <v>86</v>
+      </c>
+      <c r="E5" t="n">
+        <v>84</v>
+      </c>
+      <c r="F5" t="n">
+        <v>85</v>
+      </c>
+      <c r="G5" t="n">
         <v>88</v>
       </c>
-      <c r="E5" t="n">
-        <v>85</v>
-      </c>
-      <c r="F5" t="n">
-        <v>84</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>83</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>82</v>
       </c>
-      <c r="I5" t="n">
-        <v>86</v>
-      </c>
       <c r="J5" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K5" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="L5" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>71</v>
+        <v>124.6961241375956</v>
       </c>
       <c r="O5" t="n">
-        <v>70</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>235.0258146783028</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4437,21 +4419,27 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="M6" t="n">
-        <v>121.7606759154867</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>242.2929467240417</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1128.120724548142</v>
+        <v>1151.057272815434</v>
       </c>
       <c r="B7" t="n">
-        <v>1.771929264068604</v>
+        <v>1.962153911590576</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4487,49 +4475,43 @@
         <v>17</v>
       </c>
       <c r="E1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F1" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G1" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H1" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J1" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="K1" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L1" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N1" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="O1" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P1" t="n">
-        <v>11</v>
+        <v>161.4754412532321</v>
       </c>
       <c r="Q1" t="n">
         <v>0</v>
-      </c>
-      <c r="R1" t="n">
-        <v>241.5242890063002</v>
-      </c>
-      <c r="S1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -4540,49 +4522,49 @@
         <v>67</v>
       </c>
       <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
-        <v>46</v>
-      </c>
       <c r="E2" t="n">
+        <v>52</v>
+      </c>
+      <c r="F2" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13</v>
+      </c>
+      <c r="H2" t="n">
+        <v>54</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>35</v>
+      </c>
+      <c r="L2" t="n">
         <v>8</v>
       </c>
-      <c r="F2" t="n">
-        <v>35</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>19</v>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="n">
+        <v>59</v>
+      </c>
+      <c r="P2" t="n">
         <v>53</v>
       </c>
-      <c r="I2" t="n">
-        <v>72</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>30</v>
-      </c>
-      <c r="L2" t="n">
-        <v>74</v>
-      </c>
-      <c r="M2" t="n">
-        <v>28</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61</v>
-      </c>
-      <c r="O2" t="n">
-        <v>21</v>
-      </c>
-      <c r="P2" t="n">
-        <v>47</v>
-      </c>
       <c r="Q2" t="n">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -4591,10 +4573,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>171.3907403423838</v>
+        <v>195.9510020696657</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4614,16 +4596,16 @@
         <v>32</v>
       </c>
       <c r="F3" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I3" t="n">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4635,33 +4617,30 @@
         <v>62</v>
       </c>
       <c r="M3" t="n">
+        <v>22</v>
+      </c>
+      <c r="N3" t="n">
+        <v>42</v>
+      </c>
+      <c r="O3" t="n">
         <v>64</v>
       </c>
-      <c r="N3" t="n">
-        <v>69</v>
-      </c>
-      <c r="O3" t="n">
-        <v>60</v>
-      </c>
       <c r="P3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="R3" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.1334773745572</v>
       </c>
       <c r="U3" t="n">
-        <v>246.9944428630593</v>
-      </c>
-      <c r="V3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,39 +4673,48 @@
         <v>71</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K4" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="M4" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
+        <v>57</v>
+      </c>
+      <c r="O4" t="n">
+        <v>60</v>
+      </c>
+      <c r="P4" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>24</v>
+      </c>
+      <c r="R4" t="n">
+        <v>25</v>
+      </c>
+      <c r="S4" t="n">
+        <v>31</v>
+      </c>
+      <c r="T4" t="n">
         <v>65</v>
       </c>
-      <c r="O4" t="n">
-        <v>66</v>
-      </c>
-      <c r="P4" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>55</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>231.5304644035969</v>
-      </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>365.0871836163323</v>
+      </c>
+      <c r="X4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4741,49 +4729,49 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="G5" t="n">
+        <v>23</v>
+      </c>
+      <c r="H5" t="n">
+        <v>56</v>
+      </c>
+      <c r="I5" t="n">
+        <v>41</v>
+      </c>
+      <c r="J5" t="n">
         <v>43</v>
       </c>
-      <c r="H5" t="n">
-        <v>41</v>
-      </c>
-      <c r="I5" t="n">
-        <v>42</v>
-      </c>
-      <c r="J5" t="n">
-        <v>22</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M5" t="n">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="O5" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="R5" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -4792,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>188.1455684754349</v>
+        <v>188.764830600591</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
@@ -4800,10 +4788,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1079.585505090775</v>
+        <v>1109.411934914378</v>
       </c>
       <c r="B6" t="n">
-        <v>1.14119815826416</v>
+        <v>1.151173830032349</v>
       </c>
     </row>
   </sheetData>
@@ -4817,7 +4805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4836,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E1" t="n">
         <v>74</v>
@@ -4860,15 +4848,12 @@
         <v>61</v>
       </c>
       <c r="L1" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="M1" t="n">
-        <v>0</v>
+        <v>124.5630733590954</v>
       </c>
       <c r="N1" t="n">
-        <v>141.0885094964045</v>
-      </c>
-      <c r="O1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,60 +4865,57 @@
         <v>67</v>
       </c>
       <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
         <v>46</v>
       </c>
-      <c r="D2" t="n">
-        <v>34</v>
-      </c>
       <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="n">
+        <v>53</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>72</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>52</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>27</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>13</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>54</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>48</v>
-      </c>
-      <c r="L2" t="n">
-        <v>47</v>
-      </c>
-      <c r="M2" t="n">
-        <v>36</v>
-      </c>
-      <c r="N2" t="n">
-        <v>60</v>
-      </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P2" t="n">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="n">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="R2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.0497826057148</v>
       </c>
       <c r="T2" t="n">
-        <v>184.0275157399125</v>
-      </c>
-      <c r="U2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4972,25 +4954,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N3" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O3" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="P3" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>215.7761856893731</v>
+        <v>226.0003209906512</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -5010,22 +4992,22 @@
         <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J4" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -5034,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>132.7159398420558</v>
+        <v>101.2782460839301</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -5072,28 +5054,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="M5" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N5" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="O5" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="P5" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>169.2371055024333</v>
+        <v>219.8775599062523</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -5107,57 +5089,63 @@
         <v>17</v>
       </c>
       <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
         <v>39</v>
       </c>
-      <c r="D6" t="n">
-        <v>9</v>
-      </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F6" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K6" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="M6" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P6" t="n">
-        <v>248.1411825180124</v>
+        <v>57</v>
       </c>
       <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>187.1256625898869</v>
+      </c>
+      <c r="S6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1090.986438788192</v>
+        <v>1035.894645535531</v>
       </c>
       <c r="B7" t="n">
-        <v>1.309683561325073</v>
+        <v>1.221182823181152</v>
       </c>
     </row>
   </sheetData>
@@ -5171,7 +5159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5193,30 +5181,33 @@
         <v>30</v>
       </c>
       <c r="E1" t="n">
+        <v>48</v>
+      </c>
+      <c r="F1" t="n">
+        <v>47</v>
+      </c>
+      <c r="G1" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1" t="n">
+        <v>69</v>
+      </c>
+      <c r="I1" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1" t="n">
         <v>74</v>
       </c>
-      <c r="F1" t="n">
-        <v>28</v>
-      </c>
-      <c r="G1" t="n">
+      <c r="K1" t="n">
         <v>61</v>
       </c>
-      <c r="H1" t="n">
-        <v>21</v>
-      </c>
-      <c r="I1" t="n">
-        <v>47</v>
-      </c>
-      <c r="J1" t="n">
-        <v>36</v>
-      </c>
-      <c r="K1" t="n">
-        <v>0</v>
-      </c>
       <c r="L1" t="n">
-        <v>99.94274093932742</v>
+        <v>0</v>
       </c>
       <c r="M1" t="n">
+        <v>115.0012878743383</v>
+      </c>
+      <c r="N1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5255,13 +5246,13 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
         <v>64</v>
-      </c>
-      <c r="N2" t="n">
-        <v>69</v>
       </c>
       <c r="O2" t="n">
         <v>60</v>
@@ -5273,15 +5264,12 @@
         <v>57</v>
       </c>
       <c r="R2" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>236.2912927328081</v>
       </c>
       <c r="T2" t="n">
-        <v>233.706663226245</v>
-      </c>
-      <c r="U2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5317,24 +5305,33 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="L3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="P3" t="n">
-        <v>206.9063947221201</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="n">
+        <v>55</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>230.3495489807303</v>
+      </c>
+      <c r="T3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5396,51 +5393,42 @@
         <v>73</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="G5" t="n">
+        <v>22</v>
+      </c>
+      <c r="H5" t="n">
+        <v>42</v>
+      </c>
+      <c r="I5" t="n">
+        <v>41</v>
+      </c>
+      <c r="J5" t="n">
         <v>43</v>
       </c>
-      <c r="H5" t="n">
-        <v>41</v>
-      </c>
-      <c r="I5" t="n">
-        <v>42</v>
-      </c>
-      <c r="J5" t="n">
-        <v>22</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="O5" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="P5" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>39</v>
+        <v>206.9639227115667</v>
       </c>
       <c r="R5" t="n">
-        <v>55</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>227.9615631747994</v>
-      </c>
-      <c r="U5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5525,10 +5513,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1079.585505090775</v>
+        <v>1099.674195327727</v>
       </c>
       <c r="B8" t="n">
-        <v>1.196451663970947</v>
+        <v>1.294172286987305</v>
       </c>
     </row>
   </sheetData>
@@ -5542,7 +5530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5558,91 +5546,70 @@
         <v>53</v>
       </c>
       <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="n">
         <v>58</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>40</v>
       </c>
-      <c r="E1" t="n">
+      <c r="F1" t="n">
         <v>21</v>
       </c>
-      <c r="F1" t="n">
+      <c r="G1" t="n">
         <v>73</v>
       </c>
-      <c r="G1" t="n">
+      <c r="H1" t="n">
         <v>72</v>
       </c>
-      <c r="H1" t="n">
+      <c r="I1" t="n">
         <v>74</v>
       </c>
-      <c r="I1" t="n">
-        <v>75</v>
-      </c>
       <c r="J1" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="K1" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L1" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="M1" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N1" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="O1" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="P1" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="Q1" t="n">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="R1" t="n">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="S1" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="T1" t="n">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="U1" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="V1" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="W1" t="n">
-        <v>49</v>
+        <v>200.2352437992208</v>
       </c>
       <c r="X1" t="n">
-        <v>64</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>244.5661572293758</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -5707,21 +5674,51 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="V2" t="n">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="W2" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="n">
-        <v>270.3357679941755</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>54</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>367.9424724930644</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,75 +5748,78 @@
         <v>24</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="J3" t="n">
+        <v>25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>39</v>
+      </c>
+      <c r="L3" t="n">
         <v>23</v>
       </c>
-      <c r="K3" t="n">
-        <v>22</v>
-      </c>
-      <c r="L3" t="n">
-        <v>41</v>
-      </c>
       <c r="M3" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="T3" t="n">
+        <v>47</v>
+      </c>
+      <c r="U3" t="n">
+        <v>36</v>
+      </c>
+      <c r="V3" t="n">
+        <v>49</v>
+      </c>
+      <c r="W3" t="n">
+        <v>64</v>
+      </c>
+      <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z3" t="n">
         <v>62</v>
       </c>
-      <c r="U3" t="n">
+      <c r="AA3" t="n">
         <v>10</v>
       </c>
-      <c r="V3" t="n">
-        <v>70</v>
-      </c>
-      <c r="W3" t="n">
-        <v>30</v>
-      </c>
-      <c r="X3" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>33</v>
-      </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>318.567595863092</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
+        <v>299.6954832679597</v>
+      </c>
+      <c r="AG3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5840,31 +5840,31 @@
         <v>95</v>
       </c>
       <c r="F4" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G4" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="I4" t="n">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="K4" t="n">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="L4" t="n">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="M4" t="n">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="N4" t="n">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="O4" t="n">
         <v>60</v>
@@ -5876,43 +5876,43 @@
         <v>13</v>
       </c>
       <c r="R4" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="S4" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="T4" t="n">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="U4" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="W4" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="X4" t="n">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>215.4861675130305</v>
+        <v>197.194722893821</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -5920,10 +5920,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1048.955688599674</v>
+        <v>1065.067922454066</v>
       </c>
       <c r="B5" t="n">
-        <v>2.011658668518066</v>
+        <v>2.060477256774902</v>
       </c>
     </row>
   </sheetData>
